--- a/results/comparaison/GM/depolarization/median_normalized.xlsx
+++ b/results/comparaison/GM/depolarization/median_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>1.019490351938449</v>
+      </c>
+      <c r="D3">
+        <v>1.034755017502922</v>
+      </c>
+      <c r="E3">
         <v>1.028985694975425</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.027486806136796</v>
+      </c>
+      <c r="I3">
+        <v>1.013964390290441</v>
+      </c>
+      <c r="J3">
         <v>1.028114806492678</v>
       </c>
-      <c r="D3">
-        <v>1.028943660303087</v>
-      </c>
-      <c r="E3">
-        <v>1.038334572480474</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.058691845605635</v>
       </c>
-      <c r="G3">
-        <v>1.039520678659662</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>1.059297831019733</v>
+      </c>
+      <c r="M3">
+        <v>1.058201224467945</v>
+      </c>
+      <c r="N3">
         <v>1.030201533287014</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>1.041597464654502</v>
       </c>
-      <c r="L3">
-        <v>1.031393899981857</v>
-      </c>
-      <c r="N3">
-        <v>1.027901897161312</v>
-      </c>
       <c r="P3">
-        <v>1.061346541606758</v>
-      </c>
-      <c r="R3">
-        <v>1.039604900054885</v>
-      </c>
-      <c r="S3">
-        <v>1.05075712492379</v>
+        <v>1.052029642631643</v>
+      </c>
+      <c r="Q3">
+        <v>1.027644078932877</v>
       </c>
       <c r="T3">
-        <v>1.011046358799586</v>
+        <v>1.012820076953408</v>
+      </c>
+      <c r="U3">
+        <v>1.045275297423683</v>
       </c>
       <c r="V3">
-        <v>1.03376176403712</v>
-      </c>
-      <c r="X3">
-        <v>1.027486806136796</v>
+        <v>1.037034809713349</v>
+      </c>
+      <c r="W3">
+        <v>1.016802258680082</v>
       </c>
       <c r="Y3">
-        <v>1.06211488775738</v>
+        <v>1.037711520866278</v>
       </c>
       <c r="Z3">
-        <v>1.013964390290441</v>
-      </c>
-      <c r="AB3">
-        <v>0.9741373510186409</v>
+        <v>1.054283347045349</v>
+      </c>
+      <c r="AA3">
+        <v>1.051527272910527</v>
       </c>
       <c r="AC3">
-        <v>1.000953724038466</v>
+        <v>1.051677681637568</v>
       </c>
       <c r="AD3">
-        <v>1.042671442929646</v>
-      </c>
-      <c r="AE3">
-        <v>1.021356137470107</v>
+        <v>1.058299416554164</v>
       </c>
       <c r="AF3">
-        <v>1.061790378223298</v>
+        <v>1.025267438590707</v>
       </c>
       <c r="AG3">
-        <v>0.973310195958348</v>
-      </c>
-      <c r="AH3">
-        <v>0.9975170034299954</v>
+        <v>1.120363481397009</v>
       </c>
       <c r="AI3">
-        <v>1.107476598885766</v>
+        <v>1.093098686151412</v>
       </c>
       <c r="AJ3">
-        <v>1.045275419634054</v>
+        <v>1.047918954033563</v>
+      </c>
+      <c r="AK3">
+        <v>1.034262959954898</v>
       </c>
       <c r="AL3">
-        <v>1.003040096561858</v>
+        <v>1.086226724656153</v>
+      </c>
+      <c r="AM3">
+        <v>0.9921056170542332</v>
       </c>
       <c r="AN3">
-        <v>1.070150059713279</v>
+        <v>1.100869494620574</v>
       </c>
       <c r="AO3">
-        <v>1.031215673964527</v>
+        <v>1.071168641218214</v>
       </c>
       <c r="AP3">
-        <v>1.028861314233508</v>
+        <v>1.057143990148756</v>
       </c>
       <c r="AQ3">
-        <v>1.091325724932333</v>
+        <v>1.055044152422377</v>
       </c>
       <c r="AR3">
-        <v>1.083670672388879</v>
+        <v>1.038570527304706</v>
       </c>
       <c r="AT3">
-        <v>1.029189117648779</v>
+        <v>1.088890989844932</v>
+      </c>
+      <c r="AU3">
+        <v>1.059272430024948</v>
       </c>
       <c r="AV3">
-        <v>1.003184950099644</v>
+        <v>1.023716837173579</v>
       </c>
       <c r="AW3">
-        <v>1.131039183052347</v>
+        <v>1.098368198708662</v>
       </c>
       <c r="AX3">
-        <v>1.020789540939884</v>
+        <v>1.010869214664657</v>
       </c>
       <c r="AY3">
-        <v>0.9262640849928456</v>
-      </c>
-      <c r="AZ3">
-        <v>1.068965953665293</v>
+        <v>1.202997426682925</v>
       </c>
       <c r="BA3">
-        <v>1.056819701107494</v>
+        <v>1.08222916681199</v>
       </c>
       <c r="BB3">
-        <v>1.041321661272426</v>
+        <v>1.068520433734275</v>
       </c>
       <c r="BC3">
-        <v>1.054322276345845</v>
+        <v>1.071696534027684</v>
       </c>
       <c r="BD3">
-        <v>1.081627575810803</v>
+        <v>1.114261213756487</v>
       </c>
       <c r="BE3">
-        <v>1.0717455064757</v>
+        <v>1.056340295121748</v>
       </c>
       <c r="BF3">
-        <v>1.045400060888421</v>
-      </c>
-      <c r="BG3">
-        <v>1.04242466580635</v>
+        <v>1.069011292212144</v>
       </c>
       <c r="BH3">
-        <v>1.042419321521738</v>
+        <v>1.093930321468172</v>
       </c>
       <c r="BI3">
-        <v>1.074016250206407</v>
+        <v>1.047216947435964</v>
       </c>
       <c r="BJ3">
-        <v>1.08100153533789</v>
+        <v>1.118468195216721</v>
+      </c>
+      <c r="BK3">
+        <v>1.044526961449845</v>
       </c>
       <c r="BL3">
-        <v>1.118103440555061</v>
-      </c>
-      <c r="BM3">
-        <v>1.118118181848238</v>
+        <v>1.112985689702672</v>
+      </c>
+      <c r="BN3">
+        <v>1.13202587114985</v>
+      </c>
+      <c r="BO3">
+        <v>0.9959598480801403</v>
+      </c>
+      <c r="BP3">
+        <v>1.067233870922645</v>
       </c>
       <c r="BQ3">
-        <v>1.011604664208487</v>
+        <v>1.120893966374992</v>
       </c>
       <c r="BR3">
-        <v>1.122319703388444</v>
+        <v>1.071293539463475</v>
       </c>
       <c r="BS3">
-        <v>1.087207413733972</v>
+        <v>1.101347808301738</v>
       </c>
       <c r="BT3">
-        <v>0.9566185588237941</v>
+        <v>1.117419014899073</v>
       </c>
       <c r="BU3">
-        <v>1.114573017792374</v>
+        <v>1.056976484376443</v>
       </c>
       <c r="BV3">
-        <v>1.049192361074369</v>
+        <v>1.050092408702682</v>
       </c>
       <c r="BW3">
-        <v>1.113871989019135</v>
+        <v>1.099378466114117</v>
       </c>
       <c r="BX3">
-        <v>1.065993595423611</v>
-      </c>
-      <c r="CA3">
-        <v>0.9965398747808139</v>
+        <v>1.111599169949609</v>
+      </c>
+      <c r="BY3">
+        <v>1.056908271249082</v>
+      </c>
+      <c r="BZ3">
+        <v>1.137612174804017</v>
       </c>
       <c r="CB3">
-        <v>1.036166631980288</v>
+        <v>1.014398149915974</v>
+      </c>
+      <c r="CC3">
+        <v>0.9577225114860826</v>
       </c>
       <c r="CD3">
-        <v>1.071872235664505</v>
+        <v>1.027421956858668</v>
       </c>
       <c r="CE3">
-        <v>1.038771597208112</v>
+        <v>0.9686825499187086</v>
       </c>
       <c r="CF3">
-        <v>1.091358541251236</v>
+        <v>0.9579911119265747</v>
+      </c>
+      <c r="CG3">
+        <v>1.063932595516744</v>
       </c>
       <c r="CH3">
-        <v>1.032658081887789</v>
+        <v>1.041366004451061</v>
+      </c>
+      <c r="CI3">
+        <v>0.9442001785917388</v>
       </c>
       <c r="CK3">
-        <v>1.054835009296258</v>
+        <v>1.076006455839712</v>
+      </c>
+      <c r="CL3">
+        <v>1.07201847876022</v>
       </c>
       <c r="CM3">
-        <v>1.068029310828625</v>
+        <v>1.101420944533702</v>
       </c>
       <c r="CN3">
-        <v>1.042517193614337</v>
+        <v>1.008153518738614</v>
+      </c>
+      <c r="CO3">
+        <v>1.066677037634353</v>
       </c>
       <c r="CP3">
-        <v>1.050138607763591</v>
+        <v>1.027955404413325</v>
+      </c>
+      <c r="CQ3">
+        <v>1.193594472341819</v>
+      </c>
+      <c r="CR3">
+        <v>1.042392624905088</v>
       </c>
       <c r="CS3">
-        <v>1.052394104926992</v>
+        <v>1.074664425672044</v>
+      </c>
+      <c r="CT3">
+        <v>0.8802116208688545</v>
+      </c>
+      <c r="CU3">
+        <v>1.067679548215475</v>
+      </c>
+      <c r="CV3">
+        <v>1.098673526064589</v>
+      </c>
+      <c r="CW3">
+        <v>1.050638592038853</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.053441544557175</v>
+      </c>
       <c r="C4">
+        <v>1.010582849511675</v>
+      </c>
+      <c r="D4">
+        <v>1.027700289702359</v>
+      </c>
+      <c r="E4">
+        <v>1.044639385427054</v>
+      </c>
+      <c r="H4">
+        <v>1.043322552745728</v>
+      </c>
+      <c r="I4">
+        <v>1.025384315676794</v>
+      </c>
+      <c r="J4">
         <v>1.035980780787155</v>
       </c>
-      <c r="D4">
-        <v>1.015695422571741</v>
-      </c>
-      <c r="E4">
-        <v>1.044916446416335</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>1.067236967495993</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>1.071982962870688</v>
+      </c>
+      <c r="M4">
+        <v>1.054420742957628</v>
+      </c>
+      <c r="N4">
         <v>1.035850997535692</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>1.033095052101973</v>
       </c>
-      <c r="L4">
-        <v>1.041268651242764</v>
-      </c>
-      <c r="N4">
-        <v>1.019884513713013</v>
+      <c r="P4">
+        <v>1.060818399072389</v>
       </c>
       <c r="Q4">
-        <v>1.017410132187202</v>
-      </c>
-      <c r="R4">
-        <v>1.058988149712097</v>
-      </c>
-      <c r="S4">
-        <v>1.06323925336243</v>
+        <v>1.019588008715811</v>
       </c>
       <c r="T4">
-        <v>0.9832234840963853</v>
+        <v>1.008968081753867</v>
+      </c>
+      <c r="U4">
+        <v>1.051377121387819</v>
       </c>
       <c r="V4">
-        <v>1.02826688797372</v>
+        <v>1.04728193934611</v>
       </c>
       <c r="W4">
-        <v>1.054450137665959</v>
-      </c>
-      <c r="X4">
-        <v>1.043322552745728</v>
-      </c>
-      <c r="Y4">
-        <v>1.067942832150727</v>
+        <v>1.022480020621656</v>
+      </c>
+      <c r="Z4">
+        <v>1.056502588664677</v>
+      </c>
+      <c r="AA4">
+        <v>1.113772312623591</v>
       </c>
       <c r="AC4">
-        <v>1.023955418242758</v>
-      </c>
-      <c r="AE4">
-        <v>1.024426752642217</v>
+        <v>1.060628779893198</v>
+      </c>
+      <c r="AD4">
+        <v>1.053602985792745</v>
       </c>
       <c r="AF4">
-        <v>1.099444410458777</v>
-      </c>
-      <c r="AH4">
-        <v>1.018477031282745</v>
+        <v>1.026762618592371</v>
+      </c>
+      <c r="AG4">
+        <v>1.109601800651377</v>
       </c>
       <c r="AI4">
-        <v>1.11285235794004</v>
+        <v>1.101663070224818</v>
       </c>
       <c r="AJ4">
-        <v>1.046028114776911</v>
+        <v>1.049441803271055</v>
+      </c>
+      <c r="AK4">
+        <v>1.034269855623401</v>
       </c>
       <c r="AL4">
-        <v>1.026297429643704</v>
+        <v>1.091162037077091</v>
+      </c>
+      <c r="AM4">
+        <v>0.9931882256189019</v>
+      </c>
+      <c r="AN4">
+        <v>1.099171887906202</v>
       </c>
       <c r="AO4">
-        <v>1.05524133225346</v>
+        <v>1.068628487253009</v>
       </c>
       <c r="AP4">
-        <v>1.025949351460743</v>
+        <v>1.056908778248512</v>
       </c>
       <c r="AQ4">
-        <v>1.095365896893388</v>
+        <v>1.07683558260305</v>
       </c>
       <c r="AR4">
-        <v>1.087907487898439</v>
-      </c>
-      <c r="AS4">
-        <v>0.9933187935321899</v>
+        <v>1.048066029953924</v>
       </c>
       <c r="AT4">
-        <v>1.067167267537246</v>
+        <v>1.089890118376664</v>
+      </c>
+      <c r="AU4">
+        <v>1.075392764841387</v>
       </c>
       <c r="AV4">
-        <v>1.008134898975069</v>
+        <v>1.028733306705848</v>
       </c>
       <c r="AW4">
-        <v>1.113603820193348</v>
+        <v>1.05214397589031</v>
       </c>
       <c r="AX4">
-        <v>1.050950946545099</v>
+        <v>1.027323168023347</v>
+      </c>
+      <c r="AY4">
+        <v>1.186647308326384</v>
       </c>
       <c r="AZ4">
-        <v>1.073075757877699</v>
+        <v>1.026361461426842</v>
       </c>
       <c r="BA4">
-        <v>1.061536682440867</v>
+        <v>1.086698087985767</v>
       </c>
       <c r="BB4">
-        <v>1.027467424141556</v>
+        <v>1.068491542062343</v>
       </c>
       <c r="BC4">
-        <v>1.027886582613778</v>
+        <v>1.067148910170943</v>
       </c>
       <c r="BD4">
-        <v>1.089101142553065</v>
+        <v>1.078483872148043</v>
       </c>
       <c r="BE4">
-        <v>1.089381683382733</v>
+        <v>1.065267106541109</v>
       </c>
       <c r="BF4">
-        <v>1.038913155492687</v>
-      </c>
-      <c r="BG4">
-        <v>1.019859951693519</v>
+        <v>1.087305610721378</v>
       </c>
       <c r="BH4">
-        <v>1.040207587310319</v>
+        <v>1.103770649657129</v>
       </c>
       <c r="BI4">
-        <v>1.088587532570379</v>
+        <v>1.051047831403094</v>
       </c>
       <c r="BJ4">
-        <v>1.08557623225569</v>
+        <v>1.117841198854194</v>
+      </c>
+      <c r="BK4">
+        <v>1.020292344023858</v>
       </c>
       <c r="BL4">
-        <v>1.110250270113967</v>
+        <v>1.107716260800927</v>
       </c>
       <c r="BM4">
-        <v>1.119948219040823</v>
+        <v>0.981496065998462</v>
       </c>
       <c r="BN4">
-        <v>1.087939526664151</v>
+        <v>1.121956173557019</v>
       </c>
       <c r="BO4">
-        <v>1.032195085782167</v>
+        <v>0.9589990518414792</v>
+      </c>
+      <c r="BP4">
+        <v>1.08131138624733</v>
+      </c>
+      <c r="BQ4">
+        <v>1.028619611407771</v>
       </c>
       <c r="BR4">
-        <v>1.125938437852023</v>
+        <v>1.054099334875331</v>
       </c>
       <c r="BS4">
-        <v>1.093693124764149</v>
+        <v>1.095621944879763</v>
+      </c>
+      <c r="BT4">
+        <v>1.124541108051196</v>
       </c>
       <c r="BU4">
-        <v>1.109034373159995</v>
+        <v>1.046963180605242</v>
+      </c>
+      <c r="BV4">
+        <v>1.009571559218586</v>
+      </c>
+      <c r="BW4">
+        <v>1.074315639904456</v>
       </c>
       <c r="BX4">
-        <v>1.047400166358948</v>
+        <v>1.104192562085216</v>
       </c>
       <c r="BY4">
-        <v>1.089007113022616</v>
-      </c>
-      <c r="CA4">
-        <v>0.9723697416414059</v>
+        <v>1.053222465930349</v>
+      </c>
+      <c r="BZ4">
+        <v>1.134947420835545</v>
+      </c>
+      <c r="CB4">
+        <v>0.9947869578101824</v>
+      </c>
+      <c r="CC4">
+        <v>0.8834166127035783</v>
+      </c>
+      <c r="CD4">
+        <v>0.995438925754573</v>
       </c>
       <c r="CE4">
-        <v>1.00483396955714</v>
+        <v>0.9771674217241891</v>
       </c>
       <c r="CF4">
-        <v>1.0651637160088</v>
+        <v>0.9661297452342399</v>
+      </c>
+      <c r="CG4">
+        <v>1.051803783004852</v>
       </c>
       <c r="CH4">
-        <v>1.007158343170417</v>
+        <v>1.02966477794136</v>
       </c>
       <c r="CI4">
-        <v>1.002705525953853</v>
+        <v>0.967436988816223</v>
       </c>
       <c r="CK4">
-        <v>1.040976928876332</v>
+        <v>1.074806534527182</v>
       </c>
       <c r="CL4">
-        <v>1.015672130912654</v>
+        <v>1.061763674749766</v>
       </c>
       <c r="CM4">
-        <v>1.05946755630077</v>
+        <v>1.102091144754632</v>
       </c>
       <c r="CN4">
-        <v>1.032826286733875</v>
+        <v>0.9955999618381579</v>
+      </c>
+      <c r="CO4">
+        <v>1.03702832899093</v>
       </c>
       <c r="CP4">
-        <v>1.053235561776941</v>
+        <v>1.041970183217267</v>
+      </c>
+      <c r="CQ4">
+        <v>1.22930973930335</v>
+      </c>
+      <c r="CR4">
+        <v>1.041701319767191</v>
       </c>
       <c r="CS4">
-        <v>1.048783612102095</v>
+        <v>1.026832569795146</v>
+      </c>
+      <c r="CT4">
+        <v>0.6813639016721117</v>
       </c>
       <c r="CU4">
-        <v>1.060561046324362</v>
+        <v>1.053824430987178</v>
+      </c>
+      <c r="CV4">
+        <v>1.090952649736568</v>
+      </c>
+      <c r="CW4">
+        <v>1.073778093871292</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.059821217847092</v>
+      </c>
+      <c r="C5">
+        <v>1.025174486183155</v>
+      </c>
+      <c r="D5">
+        <v>1.030292389028629</v>
+      </c>
+      <c r="E5">
         <v>1.041992632695878</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.037757548237956</v>
+      </c>
+      <c r="I5">
+        <v>1.017069468943869</v>
+      </c>
+      <c r="J5">
         <v>1.038782323773367</v>
       </c>
-      <c r="D5">
-        <v>1.014855788580484</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>1.057205609627737</v>
       </c>
-      <c r="G5">
-        <v>1.048052390431753</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>1.057589724750539</v>
+      </c>
+      <c r="M5">
+        <v>1.053373297062962</v>
+      </c>
+      <c r="N5">
         <v>1.025776523707914</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.041457207479398</v>
       </c>
-      <c r="N5">
-        <v>1.021294138633654</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>1.061446131506111</v>
+      </c>
+      <c r="Q5">
+        <v>1.021293587640929</v>
+      </c>
+      <c r="R5">
         <v>1.054622687317943</v>
       </c>
-      <c r="S5">
-        <v>1.052375784746268</v>
-      </c>
-      <c r="T5">
-        <v>1.018809777813113</v>
+      <c r="U5">
+        <v>1.047085530785892</v>
       </c>
       <c r="V5">
-        <v>1.031872545567502</v>
+        <v>1.05550726364452</v>
       </c>
       <c r="W5">
-        <v>1.060571844170634</v>
-      </c>
-      <c r="X5">
-        <v>1.037757548237956</v>
-      </c>
-      <c r="Y5">
-        <v>1.055911395277853</v>
+        <v>1.006845172788033</v>
       </c>
       <c r="Z5">
-        <v>1.017069468943869</v>
-      </c>
-      <c r="AB5">
-        <v>0.9634122455499223</v>
+        <v>1.050882479216657</v>
+      </c>
+      <c r="AA5">
+        <v>1.101647523506933</v>
       </c>
       <c r="AC5">
-        <v>1.017142850103885</v>
-      </c>
-      <c r="AD5">
-        <v>1.002808231788106</v>
-      </c>
-      <c r="AE5">
-        <v>1.009907912744231</v>
-      </c>
-      <c r="AH5">
-        <v>1.004081333249263</v>
+        <v>0.8171878573659174</v>
+      </c>
+      <c r="AF5">
+        <v>1.015654637548304</v>
+      </c>
+      <c r="AG5">
+        <v>1.095998687420789</v>
       </c>
       <c r="AI5">
-        <v>1.101387822944937</v>
+        <v>1.088458070390423</v>
       </c>
       <c r="AJ5">
-        <v>1.034621964329619</v>
+        <v>1.039882726288258</v>
+      </c>
+      <c r="AK5">
+        <v>1.012243806193884</v>
       </c>
       <c r="AL5">
-        <v>1.00727469087091</v>
-      </c>
-      <c r="AO5">
-        <v>1.030218518202122</v>
+        <v>1.095496484193156</v>
+      </c>
+      <c r="AM5">
+        <v>0.9858269468902237</v>
+      </c>
+      <c r="AN5">
+        <v>1.085193601179107</v>
       </c>
       <c r="AP5">
-        <v>1.016114632614964</v>
+        <v>1.057305277047443</v>
       </c>
       <c r="AQ5">
-        <v>1.091446384108499</v>
+        <v>1.056632574249091</v>
       </c>
       <c r="AR5">
-        <v>1.070552022148631</v>
+        <v>1.040644674830025</v>
       </c>
       <c r="AT5">
-        <v>1.044336774716362</v>
+        <v>1.074671874391674</v>
+      </c>
+      <c r="AU5">
+        <v>1.062554555225155</v>
       </c>
       <c r="AV5">
-        <v>0.9946710917210507</v>
+        <v>1.017376054818062</v>
       </c>
       <c r="AW5">
-        <v>1.119972140413441</v>
+        <v>1.079848552708577</v>
       </c>
       <c r="AX5">
-        <v>1.02348588613113</v>
+        <v>1.017567820314497</v>
       </c>
       <c r="AY5">
-        <v>0.936098542248443</v>
+        <v>1.210026361153079</v>
       </c>
       <c r="AZ5">
-        <v>1.082220961222186</v>
+        <v>1.003859301535516</v>
       </c>
       <c r="BA5">
-        <v>1.065467931271913</v>
+        <v>1.092140976513702</v>
       </c>
       <c r="BB5">
-        <v>1.012669716324095</v>
+        <v>1.053929909722663</v>
       </c>
       <c r="BC5">
-        <v>1.032491206807268</v>
+        <v>1.08619698594855</v>
       </c>
       <c r="BD5">
-        <v>1.074465469408565</v>
+        <v>1.045748115160386</v>
       </c>
       <c r="BE5">
-        <v>1.083231304378333</v>
+        <v>1.066121325545073</v>
       </c>
       <c r="BF5">
-        <v>1.03450282852255</v>
+        <v>1.09246152589885</v>
+      </c>
+      <c r="BG5">
+        <v>0.9302542757981911</v>
       </c>
       <c r="BH5">
-        <v>1.038739325081146</v>
+        <v>1.093632061917837</v>
       </c>
       <c r="BI5">
-        <v>1.09002032051082</v>
+        <v>1.055017765638669</v>
       </c>
       <c r="BJ5">
-        <v>1.085626880812181</v>
+        <v>1.109817024677007</v>
+      </c>
+      <c r="BK5">
+        <v>1.009193485576238</v>
       </c>
       <c r="BL5">
-        <v>1.068957907249649</v>
+        <v>1.099743836653464</v>
+      </c>
+      <c r="BM5">
+        <v>0.9108001002455859</v>
+      </c>
+      <c r="BN5">
+        <v>1.119134263578326</v>
+      </c>
+      <c r="BO5">
+        <v>0.94753817567405</v>
       </c>
       <c r="BP5">
-        <v>1.030021435460933</v>
+        <v>1.060452492787296</v>
+      </c>
+      <c r="BQ5">
+        <v>1.035413554006143</v>
       </c>
       <c r="BR5">
-        <v>1.12440807465371</v>
+        <v>1.057172245465253</v>
       </c>
       <c r="BS5">
-        <v>1.093223831777993</v>
+        <v>1.079289058357018</v>
+      </c>
+      <c r="BT5">
+        <v>1.070008835964068</v>
       </c>
       <c r="BU5">
-        <v>1.083275195654742</v>
+        <v>1.047602205259365</v>
       </c>
       <c r="BV5">
-        <v>1.050433245620302</v>
+        <v>1.068535825951174</v>
+      </c>
+      <c r="BW5">
+        <v>1.067729434069547</v>
       </c>
       <c r="BX5">
-        <v>1.04140820905297</v>
+        <v>1.097147057498123</v>
       </c>
       <c r="BY5">
-        <v>1.091440160270309</v>
-      </c>
-      <c r="CA5">
-        <v>0.9707160137384019</v>
+        <v>1.0191321961319</v>
+      </c>
+      <c r="BZ5">
+        <v>1.155900445981181</v>
+      </c>
+      <c r="CB5">
+        <v>0.9835652253830005</v>
       </c>
       <c r="CC5">
-        <v>0.924444853810663</v>
+        <v>0.85377821238273</v>
       </c>
       <c r="CD5">
-        <v>1.082794801745532</v>
+        <v>1.007011612514719</v>
       </c>
       <c r="CE5">
-        <v>1.036674913476427</v>
+        <v>0.9728125736217719</v>
+      </c>
+      <c r="CF5">
+        <v>0.9407028940205376</v>
+      </c>
+      <c r="CG5">
+        <v>1.066042172933015</v>
       </c>
       <c r="CH5">
-        <v>1.035480647269717</v>
+        <v>1.007069668004919</v>
+      </c>
+      <c r="CI5">
+        <v>0.8988556317189068</v>
       </c>
       <c r="CK5">
-        <v>1.055484035880198</v>
+        <v>1.068912449245637</v>
+      </c>
+      <c r="CL5">
+        <v>1.045471166091238</v>
       </c>
       <c r="CM5">
-        <v>1.073077468778832</v>
+        <v>1.10026567952225</v>
       </c>
       <c r="CN5">
-        <v>1.01190487473507</v>
+        <v>0.991964021912742</v>
+      </c>
+      <c r="CO5">
+        <v>1.072587452369043</v>
       </c>
       <c r="CP5">
-        <v>1.069468343764205</v>
+        <v>1.054390968069291</v>
+      </c>
+      <c r="CQ5">
+        <v>1.23845330835708</v>
+      </c>
+      <c r="CR5">
+        <v>1.025357533024021</v>
       </c>
       <c r="CS5">
-        <v>1.025030510531404</v>
+        <v>0.9743018894637291</v>
+      </c>
+      <c r="CT5">
+        <v>0.8209220030727385</v>
       </c>
       <c r="CU5">
-        <v>1.064727299276494</v>
+        <v>1.07692651434119</v>
+      </c>
+      <c r="CV5">
+        <v>1.100594343299997</v>
       </c>
       <c r="CW5">
-        <v>0.9224219639602468</v>
+        <v>1.068326258054231</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.070505330220817</v>
+      </c>
+      <c r="D6">
+        <v>1.074546143758882</v>
+      </c>
+      <c r="E6">
         <v>1.042324879621717</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>1.023241614529208</v>
+      </c>
+      <c r="H6">
+        <v>1.032325283350713</v>
+      </c>
+      <c r="I6">
+        <v>1.026183697779845</v>
+      </c>
+      <c r="J6">
         <v>1.074116898033564</v>
       </c>
-      <c r="D6">
-        <v>1.066607559419809</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.046179839159433</v>
       </c>
-      <c r="G6">
-        <v>1.06095459344127</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>1.059482246846957</v>
+      </c>
+      <c r="M6">
+        <v>1.057184083057789</v>
+      </c>
+      <c r="N6">
         <v>1.024682925904663</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.049142565609088</v>
       </c>
-      <c r="J6">
-        <v>1.019553645136984</v>
-      </c>
-      <c r="M6">
-        <v>1.023241614529208</v>
-      </c>
-      <c r="N6">
-        <v>1.066292196430751</v>
+      <c r="P6">
+        <v>1.021993945760815</v>
       </c>
       <c r="Q6">
-        <v>1.02024869538672</v>
-      </c>
-      <c r="S6">
-        <v>1.044184177823485</v>
-      </c>
-      <c r="T6">
-        <v>1.046733557305854</v>
+        <v>1.065651787636231</v>
+      </c>
+      <c r="V6">
+        <v>1.038138395895954</v>
       </c>
       <c r="W6">
-        <v>1.068823710282442</v>
-      </c>
-      <c r="X6">
-        <v>1.032325283350713</v>
+        <v>1.055681960408405</v>
       </c>
       <c r="Y6">
-        <v>1.042244587163339</v>
+        <v>1.041130034169383</v>
+      </c>
+      <c r="Z6">
+        <v>1.021386768779825</v>
       </c>
       <c r="AA6">
-        <v>1.055900370004474</v>
-      </c>
-      <c r="AB6">
-        <v>0.9425432008359731</v>
+        <v>1.122404795682665</v>
       </c>
       <c r="AC6">
-        <v>1.018425999661464</v>
+        <v>0.8347201760346933</v>
       </c>
       <c r="AD6">
-        <v>1.013690310822168</v>
+        <v>1.061730514249142</v>
       </c>
       <c r="AE6">
-        <v>1.016794649550618</v>
+        <v>1.066489323416843</v>
+      </c>
+      <c r="AF6">
+        <v>1.015962818775157</v>
       </c>
       <c r="AG6">
-        <v>0.9927135637353208</v>
+        <v>1.132551545619393</v>
       </c>
       <c r="AH6">
-        <v>1.030686810742419</v>
+        <v>1.059760395647892</v>
+      </c>
+      <c r="AI6">
+        <v>1.095465058217383</v>
       </c>
       <c r="AJ6">
-        <v>1.041037887853011</v>
+        <v>1.041774337443079</v>
       </c>
       <c r="AK6">
-        <v>1.040185123487877</v>
+        <v>1.039876664546087</v>
+      </c>
+      <c r="AL6">
+        <v>1.096881699678955</v>
       </c>
       <c r="AM6">
-        <v>1.057397440800975</v>
+        <v>0.9765672234474576</v>
       </c>
       <c r="AN6">
-        <v>1.076693752349922</v>
+        <v>1.100553476040395</v>
       </c>
       <c r="AO6">
-        <v>1.045002114397546</v>
+        <v>1.07291043702782</v>
       </c>
       <c r="AP6">
-        <v>1.019905593907873</v>
+        <v>1.06042234027598</v>
       </c>
       <c r="AQ6">
-        <v>1.100728894342231</v>
+        <v>1.052110588863974</v>
       </c>
       <c r="AR6">
-        <v>1.087279550392106</v>
+        <v>1.042452099268485</v>
+      </c>
+      <c r="AS6">
+        <v>1.060662152789358</v>
+      </c>
+      <c r="AT6">
+        <v>1.086976906266067</v>
+      </c>
+      <c r="AU6">
+        <v>1.068722594987953</v>
       </c>
       <c r="AV6">
-        <v>0.9933035264101845</v>
+        <v>1.018745621892415</v>
       </c>
       <c r="AW6">
-        <v>1.086840893483705</v>
+        <v>1.152494508346258</v>
       </c>
       <c r="AX6">
-        <v>1.029554462232625</v>
+        <v>1.015984850244937</v>
+      </c>
+      <c r="AY6">
+        <v>1.202000302464486</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9395449824827979</v>
       </c>
       <c r="BA6">
-        <v>1.053788649867658</v>
+        <v>1.045392248701759</v>
       </c>
       <c r="BB6">
-        <v>0.9994492624344622</v>
+        <v>1.049626796341668</v>
+      </c>
+      <c r="BC6">
+        <v>1.053115351013434</v>
       </c>
       <c r="BD6">
-        <v>1.042851211566607</v>
+        <v>1.065576034323167</v>
       </c>
       <c r="BE6">
-        <v>1.067037639627128</v>
+        <v>1.054508115071702</v>
       </c>
       <c r="BF6">
-        <v>1.022672562682269</v>
+        <v>1.057029002383375</v>
       </c>
       <c r="BG6">
-        <v>1.004762170539263</v>
+        <v>0.9281817455329726</v>
+      </c>
+      <c r="BH6">
+        <v>1.060185017006361</v>
       </c>
       <c r="BI6">
-        <v>1.061406693276821</v>
+        <v>1.044495655793617</v>
       </c>
       <c r="BJ6">
-        <v>1.070065374099378</v>
+        <v>1.096825373020224</v>
+      </c>
+      <c r="BK6">
+        <v>1.003738315797184</v>
       </c>
       <c r="BL6">
-        <v>1.089500310173179</v>
+        <v>1.093617144337806</v>
+      </c>
+      <c r="BM6">
+        <v>0.9054757180449382</v>
+      </c>
+      <c r="BN6">
+        <v>1.12282106809242</v>
       </c>
       <c r="BO6">
-        <v>1.031157837231848</v>
+        <v>0.9535170945520971</v>
+      </c>
+      <c r="BP6">
+        <v>1.023363345989987</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9688479746964462</v>
       </c>
       <c r="BR6">
-        <v>1.137662827653886</v>
+        <v>1.046341063076958</v>
       </c>
       <c r="BS6">
-        <v>1.084372595489234</v>
+        <v>1.080423654243092</v>
+      </c>
+      <c r="BT6">
+        <v>1.095698530493213</v>
       </c>
       <c r="BU6">
-        <v>1.086268858951837</v>
+        <v>1.033101277224997</v>
       </c>
       <c r="BV6">
-        <v>1.008122180877442</v>
+        <v>1.03735017107798</v>
+      </c>
+      <c r="BW6">
+        <v>1.074888983127439</v>
       </c>
       <c r="BX6">
-        <v>1.037958943529138</v>
+        <v>1.102748234977017</v>
       </c>
       <c r="BY6">
-        <v>1.074210674499271</v>
+        <v>1.014493923823495</v>
+      </c>
+      <c r="BZ6">
+        <v>1.133406414481686</v>
       </c>
       <c r="CA6">
-        <v>0.9697978295130981</v>
+        <v>0.9514193919629796</v>
+      </c>
+      <c r="CB6">
+        <v>0.9777597068352507</v>
       </c>
       <c r="CC6">
-        <v>0.9910413821575004</v>
+        <v>0.9379125862977551</v>
       </c>
       <c r="CD6">
-        <v>1.066356828203427</v>
+        <v>1.018144641000227</v>
       </c>
       <c r="CE6">
-        <v>0.9992957428383901</v>
+        <v>0.9562848857697167</v>
       </c>
       <c r="CF6">
-        <v>1.063223569264056</v>
+        <v>0.9534819490481857</v>
+      </c>
+      <c r="CG6">
+        <v>1.052470482831898</v>
       </c>
       <c r="CH6">
-        <v>1.020713225235869</v>
+        <v>1.039749859913773</v>
       </c>
       <c r="CI6">
-        <v>1.043312264817305</v>
+        <v>0.8990348514170807</v>
       </c>
       <c r="CJ6">
-        <v>1.085235244848056</v>
+        <v>0.956608092381109</v>
       </c>
       <c r="CK6">
-        <v>1.040790517885618</v>
+        <v>1.058003004550073</v>
       </c>
       <c r="CL6">
-        <v>0.9595946949433869</v>
+        <v>1.060981864120364</v>
       </c>
       <c r="CM6">
-        <v>1.057987724607789</v>
+        <v>1.092589128171202</v>
       </c>
       <c r="CN6">
-        <v>1.041436088429644</v>
+        <v>0.9759052789607163</v>
+      </c>
+      <c r="CO6">
+        <v>1.061542014708495</v>
       </c>
       <c r="CP6">
-        <v>1.015050786447433</v>
+        <v>1.007079118485377</v>
       </c>
       <c r="CQ6">
-        <v>1.010387742265581</v>
+        <v>1.164575718492988</v>
+      </c>
+      <c r="CR6">
+        <v>1.019798824387831</v>
       </c>
       <c r="CS6">
-        <v>1.034344151548308</v>
+        <v>1.051495036517846</v>
       </c>
       <c r="CT6">
-        <v>0.9699080431347351</v>
+        <v>0.8333135447891483</v>
+      </c>
+      <c r="CU6">
+        <v>1.049235165648813</v>
+      </c>
+      <c r="CV6">
+        <v>1.086336387717376</v>
+      </c>
+      <c r="CW6">
+        <v>1.055933926017405</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>1.035220023431403</v>
+      </c>
+      <c r="D7">
+        <v>1.0452924800698</v>
+      </c>
+      <c r="E7">
         <v>1.036499491790684</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>1.002801258706969</v>
+      </c>
+      <c r="H7">
+        <v>1.046657745866458</v>
+      </c>
+      <c r="J7">
         <v>1.054367419631339</v>
       </c>
-      <c r="D7">
-        <v>1.033824094021182</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>1.080078828180334</v>
       </c>
-      <c r="G7">
-        <v>1.065607113386504</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1.077773056750684</v>
+      </c>
+      <c r="M7">
+        <v>1.076636964234853</v>
+      </c>
+      <c r="N7">
         <v>1.034826124352055</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>1.062084342733496</v>
       </c>
-      <c r="L7">
-        <v>1.047526350467715</v>
-      </c>
-      <c r="N7">
-        <v>1.018577439690059</v>
-      </c>
-      <c r="R7">
-        <v>1.058512067060586</v>
+      <c r="P7">
+        <v>1.066249677988703</v>
+      </c>
+      <c r="Q7">
+        <v>1.018905482207968</v>
       </c>
       <c r="T7">
-        <v>1.046179381319218</v>
+        <v>1.032212312193964</v>
+      </c>
+      <c r="U7">
+        <v>1.081264656876043</v>
       </c>
       <c r="V7">
-        <v>1.043302006626951</v>
-      </c>
-      <c r="X7">
-        <v>1.046657745866458</v>
+        <v>1.05212173973621</v>
+      </c>
+      <c r="W7">
+        <v>1.006096414177098</v>
       </c>
       <c r="Y7">
-        <v>1.077647842932966</v>
+        <v>1.040565269308024</v>
       </c>
       <c r="Z7">
-        <v>1.016219882785504</v>
+        <v>1.070576058888215</v>
       </c>
       <c r="AA7">
-        <v>1.032209716612577</v>
+        <v>1.040901638117911</v>
       </c>
       <c r="AC7">
-        <v>1.044737952671885</v>
-      </c>
-      <c r="AD7">
-        <v>1.021635390316469</v>
+        <v>0.8808115502141444</v>
       </c>
       <c r="AE7">
-        <v>0.9991485578294665</v>
+        <v>1.021104558619433</v>
+      </c>
+      <c r="AF7">
+        <v>1.022774910093623</v>
+      </c>
+      <c r="AG7">
+        <v>1.103882180872477</v>
       </c>
       <c r="AH7">
-        <v>1.017460013888372</v>
+        <v>1.029660027632431</v>
       </c>
       <c r="AI7">
-        <v>1.092686760999045</v>
+        <v>1.073719376258875</v>
       </c>
       <c r="AJ7">
-        <v>1.032258475561326</v>
+        <v>1.038290103516528</v>
       </c>
       <c r="AK7">
-        <v>1.050115444816317</v>
+        <v>1.025365382466908</v>
       </c>
       <c r="AL7">
-        <v>1.033838470927281</v>
+        <v>1.12978545498517</v>
       </c>
       <c r="AM7">
-        <v>1.03533424548704</v>
+        <v>1.000314954534918</v>
       </c>
       <c r="AO7">
-        <v>1.004996073046983</v>
+        <v>1.062473105788203</v>
       </c>
       <c r="AP7">
-        <v>1.01296193556104</v>
+        <v>1.065266322237036</v>
       </c>
       <c r="AQ7">
-        <v>1.117034628050718</v>
+        <v>1.079161525587847</v>
       </c>
       <c r="AR7">
-        <v>1.066321434953683</v>
+        <v>1.076869287560245</v>
+      </c>
+      <c r="AS7">
+        <v>1.039403746736346</v>
       </c>
       <c r="AT7">
-        <v>0.9983671350786415</v>
+        <v>1.069664251643097</v>
+      </c>
+      <c r="AU7">
+        <v>1.063115637427021</v>
       </c>
       <c r="AV7">
-        <v>1.00493017474327</v>
+        <v>1.022390692628986</v>
       </c>
       <c r="AW7">
-        <v>1.094678957354917</v>
+        <v>1.132578170066813</v>
       </c>
       <c r="AX7">
-        <v>0.9955740351086068</v>
+        <v>1.045051083598857</v>
+      </c>
+      <c r="AY7">
+        <v>1.210585038735022</v>
       </c>
       <c r="AZ7">
-        <v>1.087258925763448</v>
+        <v>1.025896863256784</v>
       </c>
       <c r="BA7">
-        <v>1.067448770855615</v>
+        <v>1.103749135213342</v>
       </c>
       <c r="BB7">
-        <v>1.019560350994725</v>
+        <v>1.051417838721422</v>
       </c>
       <c r="BC7">
-        <v>1.057013662134359</v>
+        <v>1.091188593181663</v>
+      </c>
+      <c r="BD7">
+        <v>1.107995804651464</v>
       </c>
       <c r="BE7">
-        <v>1.081477329124895</v>
+        <v>1.067586024325422</v>
       </c>
       <c r="BF7">
-        <v>1.036997381581322</v>
+        <v>1.088746952323177</v>
       </c>
       <c r="BG7">
-        <v>1.013379507770309</v>
+        <v>0.9757883377983818</v>
+      </c>
+      <c r="BH7">
+        <v>1.077384641052866</v>
       </c>
       <c r="BI7">
-        <v>1.091008361960257</v>
+        <v>1.058667300650288</v>
       </c>
       <c r="BJ7">
-        <v>1.094282655243205</v>
+        <v>1.122860969845908</v>
+      </c>
+      <c r="BK7">
+        <v>1.012436697949886</v>
       </c>
       <c r="BL7">
-        <v>1.123897347066259</v>
+        <v>1.120240833979676</v>
       </c>
       <c r="BM7">
-        <v>1.129101794146102</v>
+        <v>0.966583780683415</v>
+      </c>
+      <c r="BN7">
+        <v>1.138997909360983</v>
+      </c>
+      <c r="BO7">
+        <v>1.008108437736678</v>
+      </c>
+      <c r="BP7">
+        <v>1.043695287035986</v>
+      </c>
+      <c r="BQ7">
+        <v>1.110663532130994</v>
       </c>
       <c r="BR7">
-        <v>1.137307078843489</v>
+        <v>1.054751600629144</v>
       </c>
       <c r="BS7">
-        <v>1.107024978973105</v>
+        <v>1.094696731527312</v>
       </c>
       <c r="BT7">
-        <v>0.9961826402957584</v>
+        <v>1.145102861756651</v>
       </c>
       <c r="BU7">
-        <v>1.104951385014922</v>
+        <v>1.05284133950863</v>
       </c>
       <c r="BV7">
-        <v>1.050237413021761</v>
+        <v>1.049678299145129</v>
       </c>
       <c r="BW7">
-        <v>1.109822894778091</v>
+        <v>1.087228837087806</v>
       </c>
       <c r="BX7">
-        <v>1.050360771762678</v>
-      </c>
-      <c r="CA7">
-        <v>0.9857468212186888</v>
+        <v>1.125775532067821</v>
+      </c>
+      <c r="BY7">
+        <v>1.03223208723929</v>
+      </c>
+      <c r="BZ7">
+        <v>1.170305525160561</v>
       </c>
       <c r="CB7">
-        <v>1.025438958087771</v>
+        <v>0.9845661679067711</v>
       </c>
       <c r="CC7">
-        <v>0.9867832169254088</v>
+        <v>0.9371116644455303</v>
       </c>
       <c r="CD7">
-        <v>1.082556561917503</v>
+        <v>1.02999753514569</v>
       </c>
       <c r="CE7">
-        <v>1.027480619988121</v>
+        <v>0.9900263347436994</v>
       </c>
       <c r="CF7">
-        <v>1.053842195191194</v>
+        <v>0.987486623428984</v>
       </c>
       <c r="CG7">
-        <v>1.064784067376379</v>
+        <v>1.070280564837096</v>
       </c>
       <c r="CH7">
-        <v>1.025637854742735</v>
-      </c>
-      <c r="CJ7">
-        <v>1.106632439098625</v>
+        <v>1.044271553846927</v>
+      </c>
+      <c r="CI7">
+        <v>0.8855104212296941</v>
       </c>
       <c r="CK7">
-        <v>1.05890859880447</v>
+        <v>1.079075823615081</v>
+      </c>
+      <c r="CL7">
+        <v>1.060296006728761</v>
       </c>
       <c r="CM7">
-        <v>1.077510505698929</v>
+        <v>1.108410954336529</v>
       </c>
       <c r="CN7">
-        <v>1.046860466885458</v>
+        <v>0.9989503465633804</v>
+      </c>
+      <c r="CO7">
+        <v>1.078350633215594</v>
       </c>
       <c r="CP7">
-        <v>1.06930437592563</v>
+        <v>1.054723037167717</v>
       </c>
       <c r="CQ7">
-        <v>1.007596014903239</v>
+        <v>1.199887563648023</v>
+      </c>
+      <c r="CR7">
+        <v>1.032097957884059</v>
       </c>
       <c r="CS7">
-        <v>1.037147531042692</v>
+        <v>1.045512394354375</v>
+      </c>
+      <c r="CT7">
+        <v>0.9555359224576201</v>
+      </c>
+      <c r="CU7">
+        <v>1.067879681385771</v>
+      </c>
+      <c r="CV7">
+        <v>1.083881865481046</v>
       </c>
       <c r="CW7">
-        <v>0.9703022111943496</v>
+        <v>1.108007645424652</v>
       </c>
     </row>
   </sheetData>
